--- a/资产负债表/002323.xlsx
+++ b/资产负债表/002323.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,65 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-06-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2446694508.89</v>
+        <v>2656390159.09</v>
       </c>
       <c r="P2" t="n">
-        <v>21342446.19</v>
+        <v>21354361.97</v>
       </c>
       <c r="Q2" t="n">
-        <v>5126169.45</v>
+        <v>7653575.7</v>
       </c>
       <c r="R2" t="n">
-        <v>-87.70535710350001</v>
+        <v>-92.9895729573</v>
       </c>
       <c r="S2" t="n">
-        <v>841293633.73</v>
+        <v>977629111.45</v>
       </c>
       <c r="T2" t="n">
-        <v>23.4603331666</v>
+        <v>52.5329209611</v>
       </c>
       <c r="U2" t="n">
-        <v>886355808.14</v>
+        <v>1071828733.21</v>
       </c>
       <c r="V2" t="n">
-        <v>-28.0101685513</v>
+        <v>11.5628659955</v>
       </c>
       <c r="W2" t="n">
-        <v>1642991286.6</v>
+        <v>1800616844.57</v>
       </c>
       <c r="X2" t="n">
-        <v>532571600.61</v>
+        <v>538089406.1799999</v>
       </c>
       <c r="Y2" t="n">
-        <v>-22.7745783621</v>
+        <v>-22.6445008783</v>
       </c>
       <c r="Z2" t="n">
-        <v>5825937.47</v>
+        <v>3930290.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>-18.0900175736</v>
+        <v>-38.7541736356</v>
       </c>
       <c r="AB2" t="n">
-        <v>803703222.29</v>
+        <v>855773314.52</v>
       </c>
       <c r="AC2" t="n">
-        <v>-11.393272298</v>
+        <v>38.3327316211</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.5132138205</v>
+        <v>29.9212022715</v>
       </c>
       <c r="AE2" t="n">
-        <v>9.301229498</v>
+        <v>26.2720280472</v>
       </c>
       <c r="AF2" t="n">
-        <v>134.3559465365</v>
+        <v>136.808642016</v>
       </c>
       <c r="AG2" t="n">
-        <v>67.15146826180001</v>
+        <v>67.7843515723</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
